--- a/data.xlsx
+++ b/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\sys\Рабочий стол\фриланс\schedulebotkpk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\sys\Рабочий стол\фриланс\Расписание в техникум\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D4497F3-B29A-44FB-8DF9-99E0181AC33D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13246E71-C3CF-4CD2-B452-9BEB75143B34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="525" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="44">
   <si>
     <t>С-20</t>
   </si>
@@ -122,6 +122,54 @@
   </si>
   <si>
     <t>МДк.01.01 (Сиванькаева)</t>
+  </si>
+  <si>
+    <t>МРОА-21</t>
+  </si>
+  <si>
+    <t>С-21</t>
+  </si>
+  <si>
+    <t>Т-21</t>
+  </si>
+  <si>
+    <t>МЖКХ-21</t>
+  </si>
+  <si>
+    <t>МЦИ-21</t>
+  </si>
+  <si>
+    <t>2АТ-21</t>
+  </si>
+  <si>
+    <t>СП-21</t>
+  </si>
+  <si>
+    <t>К-21</t>
+  </si>
+  <si>
+    <t>МРОА-22</t>
+  </si>
+  <si>
+    <t>С-22</t>
+  </si>
+  <si>
+    <t>Т-22</t>
+  </si>
+  <si>
+    <t>МЖКХ-22</t>
+  </si>
+  <si>
+    <t>МЦИ-22</t>
+  </si>
+  <si>
+    <t>2АТ-22</t>
+  </si>
+  <si>
+    <t>СП-22</t>
+  </si>
+  <si>
+    <t>К-22</t>
   </si>
 </sst>
 </file>
@@ -244,10 +292,13 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -256,13 +307,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -545,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:AV4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AG2" sqref="AG2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,192 +611,544 @@
     <col min="15" max="15" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:48" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="5"/>
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="5"/>
+      <c r="G1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="1" t="s">
+      <c r="H1" s="5"/>
+      <c r="I1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="3" t="s">
+      <c r="J1" s="7"/>
+      <c r="K1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="4"/>
-      <c r="M1" s="3" t="s">
+      <c r="L1" s="5"/>
+      <c r="M1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="4"/>
-      <c r="O1" s="3" t="s">
+      <c r="N1" s="5"/>
+      <c r="O1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="4"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="R1" s="7"/>
+      <c r="S1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="T1" s="5"/>
+      <c r="U1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="V1" s="5"/>
+      <c r="W1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF1" s="5"/>
+      <c r="AG1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH1" s="7"/>
+      <c r="AI1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ1" s="5"/>
+      <c r="AK1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL1" s="5"/>
+      <c r="AM1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN1" s="5"/>
+      <c r="AO1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="7"/>
+      <c r="AQ1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="5"/>
+      <c r="AS1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AT1" s="5"/>
+      <c r="AU1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AV1" s="5"/>
     </row>
-    <row r="2" spans="1:16" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:48" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="1">
         <v>214</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="1">
         <v>213</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="1">
         <v>313</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="1">
         <v>285</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="1">
         <v>311</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="1">
         <v>411</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="P2" s="5">
+      <c r="P2" s="1">
         <v>287</v>
       </c>
+      <c r="Q2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R2" s="1">
+        <v>214</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T2" s="1">
+        <v>213</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V2" s="1">
+        <v>313</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="X2" s="1">
+        <v>285</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>311</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>411</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>287</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>214</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ2" s="1">
+        <v>213</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL2" s="1">
+        <v>313</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN2" s="1">
+        <v>285</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP2" s="1">
+        <v>311</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AR2" s="1">
+        <v>411</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AV2" s="1">
+        <v>287</v>
+      </c>
     </row>
-    <row r="3" spans="1:16" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:48" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="1">
         <v>214</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="1">
         <v>213</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="1">
         <v>285</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="1">
         <v>311</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="1">
         <v>312</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="O3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="5">
+      <c r="P3" s="1">
         <v>287</v>
       </c>
+      <c r="Q3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="R3" s="1">
+        <v>214</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T3" s="1">
+        <v>213</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X3" s="1">
+        <v>285</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>311</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>312</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>287</v>
+      </c>
+      <c r="AG3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH3" s="1">
+        <v>214</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ3" s="1">
+        <v>213</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN3" s="1">
+        <v>285</v>
+      </c>
+      <c r="AO3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AP3" s="1">
+        <v>311</v>
+      </c>
+      <c r="AQ3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR3" s="1">
+        <v>312</v>
+      </c>
+      <c r="AS3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AT3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AU3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AV3" s="1">
+        <v>287</v>
+      </c>
     </row>
-    <row r="4" spans="1:16" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:48" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="1">
         <v>214</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="1">
         <v>313</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="1">
         <v>285</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="1">
         <v>311</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="1">
         <v>411</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="M4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="N4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="O4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="5">
+      <c r="P4" s="1">
+        <v>287</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R4" s="1">
+        <v>214</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="V4" s="1">
+        <v>313</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="X4" s="1">
+        <v>285</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>311</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>411</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>287</v>
+      </c>
+      <c r="AG4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH4" s="1">
+        <v>214</v>
+      </c>
+      <c r="AI4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL4" s="1">
+        <v>313</v>
+      </c>
+      <c r="AM4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN4" s="1">
+        <v>285</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP4" s="1">
+        <v>311</v>
+      </c>
+      <c r="AQ4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AR4" s="1">
+        <v>411</v>
+      </c>
+      <c r="AS4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AT4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AU4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AV4" s="1">
         <v>287</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="24">
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="M1:N1"/>
@@ -757,6 +1157,22 @@
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="AU1:AV1"/>
+    <mergeCell ref="AK1:AL1"/>
+    <mergeCell ref="AM1:AN1"/>
+    <mergeCell ref="AO1:AP1"/>
+    <mergeCell ref="AQ1:AR1"/>
+    <mergeCell ref="AS1:AT1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\sys\Рабочий стол\фриланс\Расписание в техникум\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sai\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13246E71-C3CF-4CD2-B452-9BEB75143B34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F49822C-B30E-4726-80F3-C1A83DC067AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="525" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="49">
   <si>
     <t>С-20</t>
   </si>
@@ -94,9 +94,6 @@
     <t>СП-20</t>
   </si>
   <si>
-    <t>К-20</t>
-  </si>
-  <si>
     <t>библ</t>
   </si>
   <si>
@@ -157,9 +154,6 @@
     <t>Т-22</t>
   </si>
   <si>
-    <t>МЖКХ-22</t>
-  </si>
-  <si>
     <t>МЦИ-22</t>
   </si>
   <si>
@@ -170,13 +164,34 @@
   </si>
   <si>
     <t>К-22</t>
+  </si>
+  <si>
+    <t>2МРОА-22</t>
+  </si>
+  <si>
+    <t>РЗХ-22</t>
+  </si>
+  <si>
+    <t>2АТ-19</t>
+  </si>
+  <si>
+    <t>СП-19</t>
+  </si>
+  <si>
+    <t>МДК.01.01 (Сиванькаева)/Физика</t>
+  </si>
+  <si>
+    <t>РЗХ-23</t>
+  </si>
+  <si>
+    <t>РЗХ-24</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,8 +222,29 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFC00000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FFC00000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -227,8 +263,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -251,46 +293,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -298,19 +305,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -593,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AV4"/>
+  <dimension ref="A1:BB4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AG2" sqref="AG2"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,108 +612,118 @@
     <col min="9" max="9" width="13.5703125" customWidth="1"/>
     <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="40.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:54" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="6"/>
+      <c r="E1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="4" t="s">
+      <c r="F1" s="6"/>
+      <c r="G1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="6" t="s">
+      <c r="H1" s="6"/>
+      <c r="I1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="7"/>
-      <c r="K1" s="4" t="s">
+      <c r="J1" s="5"/>
+      <c r="K1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="5"/>
-      <c r="M1" s="4" t="s">
+      <c r="L1" s="6"/>
+      <c r="M1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="5"/>
-      <c r="O1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="6" t="s">
+      <c r="N1" s="6"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" s="5"/>
+      <c r="S1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="R1" s="7"/>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="6"/>
+      <c r="U1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="T1" s="5"/>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="6"/>
+      <c r="W1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="V1" s="5"/>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="6"/>
+      <c r="Y1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="6" t="s">
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="4" t="s">
+      <c r="AB1" s="6"/>
+      <c r="AC1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="4" t="s">
+      <c r="AD1" s="6"/>
+      <c r="AE1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="AD1" s="5"/>
-      <c r="AE1" s="4" t="s">
+      <c r="AF1" s="6"/>
+      <c r="AG1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="AF1" s="5"/>
-      <c r="AG1" s="6" t="s">
+      <c r="AH1" s="5"/>
+      <c r="AI1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="AH1" s="7"/>
-      <c r="AI1" s="4" t="s">
+      <c r="AJ1" s="6"/>
+      <c r="AK1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="AJ1" s="5"/>
-      <c r="AK1" s="4" t="s">
+      <c r="AL1" s="6"/>
+      <c r="AM1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN1" s="6"/>
+      <c r="AO1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="AL1" s="5"/>
-      <c r="AM1" s="4" t="s">
+      <c r="AP1" s="5"/>
+      <c r="AQ1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AN1" s="5"/>
-      <c r="AO1" s="6" t="s">
+      <c r="AR1" s="6"/>
+      <c r="AS1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="7"/>
-      <c r="AQ1" s="4" t="s">
+      <c r="AT1" s="6"/>
+      <c r="AU1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="AR1" s="5"/>
-      <c r="AS1" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="AT1" s="5"/>
-      <c r="AU1" s="4" t="s">
+      <c r="AV1" s="6"/>
+      <c r="AW1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AV1" s="5"/>
+      <c r="AX1" s="6"/>
+      <c r="AY1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ1" s="5"/>
+      <c r="BA1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="BB1" s="5"/>
     </row>
-    <row r="2" spans="1:48" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:54" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -741,23 +755,19 @@
         <v>311</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L2" s="1">
         <v>411</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="P2" s="1">
-        <v>287</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
       <c r="Q2" s="1" t="s">
         <v>5</v>
       </c>
@@ -789,19 +799,19 @@
         <v>311</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AB2" s="1">
         <v>411</v>
       </c>
       <c r="AC2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE2" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="AF2" s="1">
         <v>287</v>
@@ -837,26 +847,44 @@
         <v>311</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AR2" s="1">
         <v>411</v>
       </c>
       <c r="AS2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AU2" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="AT2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AU2" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="AV2" s="1">
         <v>287</v>
       </c>
+      <c r="AW2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AX2" s="1">
+        <v>333</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ2" s="1">
+        <v>555</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="BB2" s="1">
+        <v>666</v>
+      </c>
     </row>
-    <row r="3" spans="1:48" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:54" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="1">
@@ -881,7 +909,7 @@
         <v>285</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J3" s="1">
         <v>311</v>
@@ -893,18 +921,14 @@
         <v>312</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="P3" s="1">
-        <v>287</v>
-      </c>
-      <c r="Q3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="R3" s="1">
@@ -929,7 +953,7 @@
         <v>285</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z3" s="1">
         <v>311</v>
@@ -941,18 +965,18 @@
         <v>312</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="AF3" s="1">
-        <v>287</v>
-      </c>
-      <c r="AG3" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="AG3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="AH3" s="1">
@@ -977,7 +1001,7 @@
         <v>285</v>
       </c>
       <c r="AO3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP3" s="1">
         <v>311</v>
@@ -989,19 +1013,37 @@
         <v>312</v>
       </c>
       <c r="AS3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AU3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AV3" s="1">
         <v>287</v>
       </c>
+      <c r="AW3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX3" s="1">
+        <v>334</v>
+      </c>
+      <c r="AY3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AZ3" s="1">
+        <v>556</v>
+      </c>
+      <c r="BA3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="BB3" s="1">
+        <v>667</v>
+      </c>
     </row>
-    <row r="4" spans="1:48" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:54" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -1027,29 +1069,25 @@
         <v>285</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J4" s="1">
         <v>311</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L4" s="1">
         <v>411</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P4" s="1">
-        <v>287</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
       <c r="Q4" s="2" t="s">
         <v>12</v>
       </c>
@@ -1075,25 +1113,25 @@
         <v>285</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Z4" s="1">
         <v>311</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB4" s="1">
         <v>411</v>
       </c>
       <c r="AC4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE4" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="AD4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE4" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="AF4" s="1">
         <v>287</v>
@@ -1123,57 +1161,78 @@
         <v>285</v>
       </c>
       <c r="AO4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP4" s="1">
         <v>311</v>
       </c>
       <c r="AQ4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR4" s="1">
         <v>411</v>
       </c>
       <c r="AS4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AT4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AU4" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="AT4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AU4" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="AV4" s="1">
         <v>287</v>
       </c>
+      <c r="AW4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX4" s="1">
+        <v>335</v>
+      </c>
+      <c r="AY4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AZ4" s="1">
+        <v>557</v>
+      </c>
+      <c r="BA4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="BB4" s="1">
+        <v>668</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
+  <mergeCells count="26">
+    <mergeCell ref="AW1:AX1"/>
     <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="BA1:BB1"/>
+    <mergeCell ref="AY1:AZ1"/>
     <mergeCell ref="AU1:AV1"/>
     <mergeCell ref="AK1:AL1"/>
     <mergeCell ref="AM1:AN1"/>
     <mergeCell ref="AO1:AP1"/>
     <mergeCell ref="AQ1:AR1"/>
     <mergeCell ref="AS1:AT1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="S1:T1"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
